--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3925.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3925.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.48773604747818</v>
+        <v>1.030001401901245</v>
       </c>
       <c r="B1">
-        <v>2.394776495314514</v>
+        <v>1.059765696525574</v>
       </c>
       <c r="C1">
-        <v>6.229304379982924</v>
+        <v>1.619904756546021</v>
       </c>
       <c r="D1">
-        <v>3.996296144173394</v>
+        <v>2.530822992324829</v>
       </c>
       <c r="E1">
-        <v>1.047699404647489</v>
+        <v>0.7748891115188599</v>
       </c>
     </row>
   </sheetData>
